--- a/data_availability/Latency.xlsx
+++ b/data_availability/Latency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clunch/sandbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clunch/sandbox/data_availability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B6FE25C7-00D2-5949-A397-BD8283295B8E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0278E0-9E73-C04D-857D-4C234BAFE089}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33220" yWindow="4360" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31180" yWindow="6460" windowWidth="42500" windowHeight="21740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wait Times" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="478">
   <si>
     <t>Team</t>
   </si>
@@ -1436,9 +1436,6 @@
     <t>Waiting on HQ Scientist availability to complete error correction</t>
   </si>
   <si>
-    <t>Waiting on field scientist to complete data entry into Fulcrum and HQ scientist to complete QA</t>
-  </si>
-  <si>
     <t>Waiting for final 2017 data from lab</t>
   </si>
   <si>
@@ -1446,9 +1443,6 @@
   </si>
   <si>
     <t>SIRFIR lab contractually has until June 30 to return data</t>
-  </si>
-  <si>
-    <t>Waiting on HQ Scientist availability to process data to generate maps</t>
   </si>
   <si>
     <t>EcoCore not returning data on time; samples backlogged</t>
@@ -2321,10 +2315,10 @@
   <dimension ref="A1:L260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G223" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L82" sqref="L82"/>
+      <selection pane="bottomRight" activeCell="I235" sqref="I235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2335,6 +2329,7 @@
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -2576,13 +2571,13 @@
         <v>435</v>
       </c>
       <c r="I7">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
         <v>453</v>
       </c>
       <c r="K7" s="2">
-        <v>43312</v>
+        <v>43404</v>
       </c>
       <c r="L7" t="s">
         <v>454</v>
@@ -2614,13 +2609,13 @@
         <v>435</v>
       </c>
       <c r="I8">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
         <v>453</v>
       </c>
       <c r="K8" s="2">
-        <v>43312</v>
+        <v>43404</v>
       </c>
       <c r="L8" t="s">
         <v>454</v>
@@ -2652,16 +2647,13 @@
         <v>434</v>
       </c>
       <c r="I9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>453</v>
-      </c>
-      <c r="K9" s="2">
-        <v>43312</v>
-      </c>
-      <c r="L9" t="s">
-        <v>454</v>
+        <v>7</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2759,9 +2751,8 @@
       <c r="H12" t="s">
         <v>439</v>
       </c>
-      <c r="I12">
-        <f>12+(100-12)/2</f>
-        <v>56</v>
+      <c r="I12" s="4">
+        <v>12</v>
       </c>
       <c r="J12" t="s">
         <v>450</v>
@@ -2798,9 +2789,8 @@
       <c r="H13" t="s">
         <v>439</v>
       </c>
-      <c r="I13">
-        <f>12+(100-12)/2</f>
-        <v>56</v>
+      <c r="I13" s="4">
+        <v>12</v>
       </c>
       <c r="J13" t="s">
         <v>450</v>
@@ -2837,9 +2827,8 @@
       <c r="H14" t="s">
         <v>439</v>
       </c>
-      <c r="I14">
-        <f>12+(100-12)/2</f>
-        <v>56</v>
+      <c r="I14" s="4">
+        <v>12</v>
       </c>
       <c r="J14" t="s">
         <v>450</v>
@@ -2876,9 +2865,8 @@
       <c r="H15" t="s">
         <v>439</v>
       </c>
-      <c r="I15">
-        <f>12+(100-12)/2</f>
-        <v>56</v>
+      <c r="I15" s="4">
+        <v>12</v>
       </c>
       <c r="J15" t="s">
         <v>450</v>
@@ -2951,7 +2939,7 @@
         <v>439</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J17" t="s">
         <v>450</v>
@@ -2989,7 +2977,7 @@
         <v>439</v>
       </c>
       <c r="I18">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
         <v>450</v>
@@ -3611,7 +3599,7 @@
         <v>439</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="J35" t="s">
         <v>450</v>
@@ -3649,7 +3637,7 @@
         <v>439</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="J36" t="s">
         <v>450</v>
@@ -3687,7 +3675,7 @@
         <v>439</v>
       </c>
       <c r="I37">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J37" t="s">
         <v>453</v>
@@ -3763,7 +3751,7 @@
         <v>439</v>
       </c>
       <c r="I39">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J39" t="s">
         <v>453</v>
@@ -3801,7 +3789,7 @@
         <v>439</v>
       </c>
       <c r="I40">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="J40" t="s">
         <v>453</v>
@@ -4427,7 +4415,7 @@
         <v>437</v>
       </c>
       <c r="I59">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="J59" t="s">
         <v>453</v>
@@ -4891,7 +4879,7 @@
         <v>439</v>
       </c>
       <c r="I72">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s">
         <v>450</v>
@@ -4929,7 +4917,7 @@
         <v>439</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="J73" t="s">
         <v>450</v>
@@ -4967,7 +4955,7 @@
         <v>439</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="J74" t="s">
         <v>450</v>
@@ -5005,7 +4993,7 @@
         <v>439</v>
       </c>
       <c r="I75">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="J75" t="s">
         <v>450</v>
@@ -5081,17 +5069,12 @@
         <v>437</v>
       </c>
       <c r="I77">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J77" t="s">
-        <v>451</v>
-      </c>
-      <c r="K77" s="2">
-        <v>43373</v>
-      </c>
-      <c r="L77" t="s">
-        <v>455</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -5271,17 +5254,13 @@
         <v>437</v>
       </c>
       <c r="I82">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J82" t="s">
-        <v>451</v>
-      </c>
-      <c r="K82" s="2">
-        <v>43373</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>475</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="L82" s="4"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -5309,17 +5288,13 @@
         <v>435</v>
       </c>
       <c r="I83">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J83" t="s">
-        <v>451</v>
-      </c>
-      <c r="K83" s="2">
-        <v>43373</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>475</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K83" s="2"/>
+      <c r="L83" s="4"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -5347,17 +5322,13 @@
         <v>435</v>
       </c>
       <c r="I84">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J84" t="s">
-        <v>451</v>
-      </c>
-      <c r="K84" s="2">
-        <v>43373</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>475</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="L84" s="4"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -5394,7 +5365,7 @@
         <v>43343</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -5432,7 +5403,7 @@
         <v>43343</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -5461,7 +5432,7 @@
         <v>437</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J87" t="s">
         <v>451</v>
@@ -5499,7 +5470,7 @@
         <v>437</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J88" t="s">
         <v>451</v>
@@ -5537,7 +5508,7 @@
         <v>437</v>
       </c>
       <c r="I89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J89" t="s">
         <v>451</v>
@@ -5575,7 +5546,7 @@
         <v>437</v>
       </c>
       <c r="I90">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J90" t="s">
         <v>451</v>
@@ -5613,7 +5584,7 @@
         <v>437</v>
       </c>
       <c r="I91">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J91" t="s">
         <v>451</v>
@@ -5651,7 +5622,7 @@
         <v>437</v>
       </c>
       <c r="I92">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J92" t="s">
         <v>451</v>
@@ -5689,7 +5660,7 @@
         <v>437</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J93" t="s">
         <v>451</v>
@@ -5727,7 +5698,7 @@
         <v>437</v>
       </c>
       <c r="I94">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J94" t="s">
         <v>451</v>
@@ -5765,7 +5736,7 @@
         <v>437</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J95" t="s">
         <v>451</v>
@@ -5803,7 +5774,7 @@
         <v>437</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J96" t="s">
         <v>451</v>
@@ -6373,17 +6344,12 @@
         <v>437</v>
       </c>
       <c r="I111">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J111" t="s">
-        <v>451</v>
-      </c>
-      <c r="K111" s="2">
-        <v>43373</v>
-      </c>
-      <c r="L111" t="s">
-        <v>455</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -6791,17 +6757,12 @@
         <v>435</v>
       </c>
       <c r="I122">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J122" t="s">
-        <v>453</v>
-      </c>
-      <c r="K122" s="2">
-        <v>43312</v>
-      </c>
-      <c r="L122" t="s">
-        <v>467</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K122" s="2"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -6829,17 +6790,12 @@
         <v>434</v>
       </c>
       <c r="I123">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J123" t="s">
-        <v>453</v>
-      </c>
-      <c r="K123" s="2">
-        <v>43312</v>
-      </c>
-      <c r="L123" t="s">
-        <v>467</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K123" s="2"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -6876,7 +6832,7 @@
         <v>43343</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -6914,7 +6870,7 @@
         <v>43343</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -6943,17 +6899,12 @@
         <v>435</v>
       </c>
       <c r="I126">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J126" t="s">
-        <v>453</v>
-      </c>
-      <c r="K126" s="2">
-        <v>43312</v>
-      </c>
-      <c r="L126" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K126" s="2"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -6981,17 +6932,12 @@
         <v>434</v>
       </c>
       <c r="I127">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J127" t="s">
-        <v>453</v>
-      </c>
-      <c r="K127" s="2">
-        <v>43312</v>
-      </c>
-      <c r="L127" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K127" s="2"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -7019,17 +6965,12 @@
         <v>434</v>
       </c>
       <c r="I128">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J128" t="s">
-        <v>453</v>
-      </c>
-      <c r="K128" s="2">
-        <v>43312</v>
-      </c>
-      <c r="L128" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K128" s="2"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -7066,7 +7007,7 @@
         <v>43343</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -7104,7 +7045,7 @@
         <v>43343</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -7142,7 +7083,7 @@
         <v>43343</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -7180,7 +7121,7 @@
         <v>43343</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -7218,7 +7159,7 @@
         <v>43343</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -7247,17 +7188,13 @@
         <v>434</v>
       </c>
       <c r="I134">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J134" t="s">
-        <v>453</v>
-      </c>
-      <c r="K134" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L134" s="4" t="s">
-        <v>474</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K134" s="2"/>
+      <c r="L134" s="4"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -7285,17 +7222,13 @@
         <v>434</v>
       </c>
       <c r="I135">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J135" t="s">
-        <v>453</v>
-      </c>
-      <c r="K135" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L135" s="4" t="s">
-        <v>474</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K135" s="2"/>
+      <c r="L135" s="4"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -7323,17 +7256,13 @@
         <v>434</v>
       </c>
       <c r="I136">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J136" t="s">
-        <v>453</v>
-      </c>
-      <c r="K136" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>474</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K136" s="2"/>
+      <c r="L136" s="4"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -7361,17 +7290,13 @@
         <v>435</v>
       </c>
       <c r="I137">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J137" t="s">
-        <v>453</v>
-      </c>
-      <c r="K137" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>474</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K137" s="2"/>
+      <c r="L137" s="4"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -7475,17 +7400,12 @@
         <v>434</v>
       </c>
       <c r="I140">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J140" t="s">
-        <v>453</v>
-      </c>
-      <c r="K140" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L140" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K140" s="2"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
@@ -7703,17 +7623,12 @@
         <v>434</v>
       </c>
       <c r="I146">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J146" t="s">
-        <v>453</v>
-      </c>
-      <c r="K146" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L146" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K146" s="2"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
@@ -7817,17 +7732,12 @@
         <v>435</v>
       </c>
       <c r="I149">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J149" t="s">
-        <v>453</v>
-      </c>
-      <c r="K149" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L149" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K149" s="2"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -7855,17 +7765,12 @@
         <v>437</v>
       </c>
       <c r="I150">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J150" t="s">
-        <v>453</v>
-      </c>
-      <c r="K150" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L150" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K150" s="2"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
@@ -7893,17 +7798,12 @@
         <v>434</v>
       </c>
       <c r="I151">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J151" t="s">
-        <v>453</v>
-      </c>
-      <c r="K151" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L151" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K151" s="2"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
@@ -7931,17 +7831,12 @@
         <v>434</v>
       </c>
       <c r="I152">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J152" t="s">
-        <v>453</v>
-      </c>
-      <c r="K152" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L152" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K152" s="2"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -7969,17 +7864,12 @@
         <v>435</v>
       </c>
       <c r="I153">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J153" t="s">
-        <v>453</v>
-      </c>
-      <c r="K153" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L153" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K153" s="2"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -8007,17 +7897,12 @@
         <v>437</v>
       </c>
       <c r="I154">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J154" t="s">
-        <v>453</v>
-      </c>
-      <c r="K154" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L154" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K154" s="2"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -8045,17 +7930,12 @@
         <v>434</v>
       </c>
       <c r="I155">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J155" t="s">
-        <v>453</v>
-      </c>
-      <c r="K155" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L155" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K155" s="2"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -8083,17 +7963,12 @@
         <v>434</v>
       </c>
       <c r="I156">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J156" t="s">
-        <v>453</v>
-      </c>
-      <c r="K156" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L156" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K156" s="2"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -8235,7 +8110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>209</v>
       </c>
@@ -8270,7 +8145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>209</v>
       </c>
@@ -8305,7 +8180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>209</v>
       </c>
@@ -8340,7 +8215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>209</v>
       </c>
@@ -8366,19 +8241,14 @@
         <v>434</v>
       </c>
       <c r="I164">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J164" t="s">
-        <v>453</v>
-      </c>
-      <c r="K164" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L164" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>209</v>
       </c>
@@ -8404,19 +8274,14 @@
         <v>434</v>
       </c>
       <c r="I165">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J165" t="s">
-        <v>453</v>
-      </c>
-      <c r="K165" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L165" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K165" s="2"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>209</v>
       </c>
@@ -8442,19 +8307,14 @@
         <v>434</v>
       </c>
       <c r="I166">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J166" t="s">
-        <v>453</v>
-      </c>
-      <c r="K166" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L166" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K166" s="2"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>209</v>
       </c>
@@ -8480,19 +8340,14 @@
         <v>434</v>
       </c>
       <c r="I167">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J167" t="s">
-        <v>453</v>
-      </c>
-      <c r="K167" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L167" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K167" s="2"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>209</v>
       </c>
@@ -8518,19 +8373,14 @@
         <v>434</v>
       </c>
       <c r="I168">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J168" t="s">
-        <v>453</v>
-      </c>
-      <c r="K168" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L168" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K168" s="2"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>209</v>
       </c>
@@ -8565,7 +8415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>209</v>
       </c>
@@ -8600,7 +8450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>209</v>
       </c>
@@ -8635,7 +8485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>209</v>
       </c>
@@ -8670,7 +8520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>209</v>
       </c>
@@ -8705,7 +8555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>209</v>
       </c>
@@ -8740,7 +8590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>209</v>
       </c>
@@ -8775,7 +8625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>209</v>
       </c>
@@ -8836,7 +8686,7 @@
         <v>437</v>
       </c>
       <c r="I177">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J177" t="s">
         <v>451</v>
@@ -8845,7 +8695,7 @@
         <v>43312</v>
       </c>
       <c r="L177" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -8874,7 +8724,7 @@
         <v>437</v>
       </c>
       <c r="I178">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J178" t="s">
         <v>451</v>
@@ -8883,7 +8733,7 @@
         <v>43312</v>
       </c>
       <c r="L178" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -9026,7 +8876,7 @@
         <v>7</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -9064,7 +8914,7 @@
         <v>7</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -9093,7 +8943,7 @@
         <v>435</v>
       </c>
       <c r="I184">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J184" t="s">
         <v>453</v>
@@ -9131,7 +8981,7 @@
         <v>434</v>
       </c>
       <c r="I185">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J185" t="s">
         <v>453</v>
@@ -9178,7 +9028,7 @@
         <v>43343</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -9216,7 +9066,7 @@
         <v>43343</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -9245,17 +9095,12 @@
         <v>434</v>
       </c>
       <c r="I188">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J188" t="s">
-        <v>453</v>
-      </c>
-      <c r="K188" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L188" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K188" s="2"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
@@ -9283,17 +9128,12 @@
         <v>434</v>
       </c>
       <c r="I189">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J189" t="s">
-        <v>453</v>
-      </c>
-      <c r="K189" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L189" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K189" s="2"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
@@ -9321,17 +9161,12 @@
         <v>434</v>
       </c>
       <c r="I190">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J190" t="s">
-        <v>453</v>
-      </c>
-      <c r="K190" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L190" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K190" s="2"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
@@ -9359,17 +9194,12 @@
         <v>437</v>
       </c>
       <c r="I191">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J191" t="s">
-        <v>453</v>
-      </c>
-      <c r="K191" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L191" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K191" s="2"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
@@ -9397,19 +9227,14 @@
         <v>437</v>
       </c>
       <c r="I192">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J192" t="s">
-        <v>453</v>
-      </c>
-      <c r="K192" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L192" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K192" s="2"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -9435,19 +9260,14 @@
         <v>434</v>
       </c>
       <c r="I193">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J193" t="s">
-        <v>453</v>
-      </c>
-      <c r="K193" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L193" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K193" s="2"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>209</v>
       </c>
@@ -9473,19 +9293,14 @@
         <v>434</v>
       </c>
       <c r="I194">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J194" t="s">
-        <v>453</v>
-      </c>
-      <c r="K194" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L194" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K194" s="2"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -9511,19 +9326,14 @@
         <v>434</v>
       </c>
       <c r="I195">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J195" t="s">
-        <v>453</v>
-      </c>
-      <c r="K195" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L195" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K195" s="2"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -9549,19 +9359,14 @@
         <v>434</v>
       </c>
       <c r="I196">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J196" t="s">
-        <v>453</v>
-      </c>
-      <c r="K196" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L196" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K196" s="2"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -9596,7 +9401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -9631,7 +9436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>209</v>
       </c>
@@ -9657,19 +9462,14 @@
         <v>434</v>
       </c>
       <c r="I199">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J199" t="s">
-        <v>453</v>
-      </c>
-      <c r="K199" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L199" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K199" s="2"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>209</v>
       </c>
@@ -9695,19 +9495,14 @@
         <v>434</v>
       </c>
       <c r="I200">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J200" t="s">
-        <v>453</v>
-      </c>
-      <c r="K200" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L200" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K200" s="2"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -9733,19 +9528,14 @@
         <v>434</v>
       </c>
       <c r="I201">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J201" t="s">
-        <v>453</v>
-      </c>
-      <c r="K201" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L201" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K201" s="2"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>209</v>
       </c>
@@ -9771,19 +9561,14 @@
         <v>437</v>
       </c>
       <c r="I202">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J202" t="s">
-        <v>453</v>
-      </c>
-      <c r="K202" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L202" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K202" s="2"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -9809,19 +9594,14 @@
         <v>434</v>
       </c>
       <c r="I203">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J203" t="s">
-        <v>453</v>
-      </c>
-      <c r="K203" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L203" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K203" s="2"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -9847,19 +9627,14 @@
         <v>434</v>
       </c>
       <c r="I204">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J204" t="s">
-        <v>453</v>
-      </c>
-      <c r="K204" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L204" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K204" s="2"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -9885,19 +9660,14 @@
         <v>434</v>
       </c>
       <c r="I205">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J205" t="s">
-        <v>453</v>
-      </c>
-      <c r="K205" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L205" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K205" s="2"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -9932,7 +9702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -9958,19 +9728,14 @@
         <v>437</v>
       </c>
       <c r="I207">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J207" t="s">
-        <v>453</v>
-      </c>
-      <c r="K207" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L207" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K207" s="2"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -9996,17 +9761,12 @@
         <v>434</v>
       </c>
       <c r="I208">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J208" t="s">
-        <v>453</v>
-      </c>
-      <c r="K208" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L208" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K208" s="2"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
@@ -10034,17 +9794,12 @@
         <v>434</v>
       </c>
       <c r="I209">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J209" t="s">
-        <v>453</v>
-      </c>
-      <c r="K209" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L209" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K209" s="2"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
@@ -10072,17 +9827,12 @@
         <v>434</v>
       </c>
       <c r="I210">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J210" t="s">
-        <v>453</v>
-      </c>
-      <c r="K210" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L210" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K210" s="2"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
@@ -10110,17 +9860,12 @@
         <v>437</v>
       </c>
       <c r="I211">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J211" t="s">
-        <v>453</v>
-      </c>
-      <c r="K211" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L211" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K211" s="2"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
@@ -10148,17 +9893,12 @@
         <v>437</v>
       </c>
       <c r="I212">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J212" t="s">
-        <v>453</v>
-      </c>
-      <c r="K212" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L212" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K212" s="2"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
@@ -10186,17 +9926,12 @@
         <v>434</v>
       </c>
       <c r="I213">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J213" t="s">
-        <v>453</v>
-      </c>
-      <c r="K213" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L213" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K213" s="2"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
@@ -10224,17 +9959,12 @@
         <v>434</v>
       </c>
       <c r="I214">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J214" t="s">
-        <v>453</v>
-      </c>
-      <c r="K214" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L214" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K214" s="2"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
@@ -10262,17 +9992,12 @@
         <v>437</v>
       </c>
       <c r="I215">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J215" t="s">
-        <v>453</v>
-      </c>
-      <c r="K215" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L215" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K215" s="2"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
@@ -10300,17 +10025,12 @@
         <v>434</v>
       </c>
       <c r="I216">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J216" t="s">
-        <v>453</v>
-      </c>
-      <c r="K216" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L216" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K216" s="2"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
@@ -10338,17 +10058,12 @@
         <v>434</v>
       </c>
       <c r="I217">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J217" t="s">
-        <v>453</v>
-      </c>
-      <c r="K217" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L217" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K217" s="2"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
@@ -10385,7 +10100,7 @@
         <v>7</v>
       </c>
       <c r="L218" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -10518,18 +10233,14 @@
       <c r="H222" t="s">
         <v>434</v>
       </c>
-      <c r="I222" s="4">
-        <v>10</v>
-      </c>
-      <c r="J222" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K222" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L222" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="I222">
+        <v>100</v>
+      </c>
+      <c r="J222" t="s">
+        <v>7</v>
+      </c>
+      <c r="K222" s="2"/>
+      <c r="L222" s="4"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
@@ -10556,18 +10267,14 @@
       <c r="H223" t="s">
         <v>434</v>
       </c>
-      <c r="I223" s="4">
-        <v>10</v>
-      </c>
-      <c r="J223" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K223" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L223" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="I223">
+        <v>100</v>
+      </c>
+      <c r="J223" t="s">
+        <v>7</v>
+      </c>
+      <c r="K223" s="2"/>
+      <c r="L223" s="4"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
@@ -10594,18 +10301,14 @@
       <c r="H224" t="s">
         <v>434</v>
       </c>
-      <c r="I224" s="4">
-        <v>10</v>
-      </c>
-      <c r="J224" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K224" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L224" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="I224">
+        <v>100</v>
+      </c>
+      <c r="J224" t="s">
+        <v>7</v>
+      </c>
+      <c r="K224" s="2"/>
+      <c r="L224" s="4"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
@@ -10632,18 +10335,14 @@
       <c r="H225" t="s">
         <v>434</v>
       </c>
-      <c r="I225" s="4">
-        <v>10</v>
-      </c>
-      <c r="J225" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K225" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L225" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="I225">
+        <v>100</v>
+      </c>
+      <c r="J225" t="s">
+        <v>7</v>
+      </c>
+      <c r="K225" s="2"/>
+      <c r="L225" s="4"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
@@ -10670,18 +10369,14 @@
       <c r="H226" t="s">
         <v>434</v>
       </c>
-      <c r="I226" s="4">
-        <v>10</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K226" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L226" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="I226">
+        <v>100</v>
+      </c>
+      <c r="J226" t="s">
+        <v>7</v>
+      </c>
+      <c r="K226" s="2"/>
+      <c r="L226" s="4"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
@@ -10708,18 +10403,14 @@
       <c r="H227" t="s">
         <v>434</v>
       </c>
-      <c r="I227" s="4">
-        <v>10</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K227" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L227" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="I227">
+        <v>100</v>
+      </c>
+      <c r="J227" t="s">
+        <v>7</v>
+      </c>
+      <c r="K227" s="2"/>
+      <c r="L227" s="4"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
@@ -10746,18 +10437,14 @@
       <c r="H228" t="s">
         <v>435</v>
       </c>
-      <c r="I228" s="4">
-        <v>10</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K228" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L228" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="I228">
+        <v>100</v>
+      </c>
+      <c r="J228" t="s">
+        <v>7</v>
+      </c>
+      <c r="K228" s="2"/>
+      <c r="L228" s="4"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
@@ -10784,18 +10471,14 @@
       <c r="H229" t="s">
         <v>435</v>
       </c>
-      <c r="I229" s="4">
-        <v>10</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K229" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L229" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="I229">
+        <v>100</v>
+      </c>
+      <c r="J229" t="s">
+        <v>7</v>
+      </c>
+      <c r="K229" s="2"/>
+      <c r="L229" s="4"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -10822,18 +10505,14 @@
       <c r="H230" t="s">
         <v>435</v>
       </c>
-      <c r="I230" s="4">
-        <v>10</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K230" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L230" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="I230">
+        <v>100</v>
+      </c>
+      <c r="J230" t="s">
+        <v>7</v>
+      </c>
+      <c r="K230" s="2"/>
+      <c r="L230" s="4"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
@@ -10860,18 +10539,14 @@
       <c r="H231" t="s">
         <v>435</v>
       </c>
-      <c r="I231" s="4">
-        <v>10</v>
-      </c>
-      <c r="J231" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K231" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L231" s="4" t="s">
-        <v>474</v>
-      </c>
+      <c r="I231">
+        <v>100</v>
+      </c>
+      <c r="J231" t="s">
+        <v>7</v>
+      </c>
+      <c r="K231" s="2"/>
+      <c r="L231" s="4"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
@@ -10899,17 +10574,12 @@
         <v>437</v>
       </c>
       <c r="I232">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J232" t="s">
-        <v>453</v>
-      </c>
-      <c r="K232" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L232" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K232" s="2"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -10937,17 +10607,12 @@
         <v>434</v>
       </c>
       <c r="I233">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J233" t="s">
-        <v>453</v>
-      </c>
-      <c r="K233" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L233" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K233" s="2"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
@@ -10975,17 +10640,12 @@
         <v>434</v>
       </c>
       <c r="I234">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J234" t="s">
-        <v>453</v>
-      </c>
-      <c r="K234" s="2">
-        <v>43343</v>
-      </c>
-      <c r="L234" t="s">
-        <v>469</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K234" s="2"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
@@ -11068,7 +10728,7 @@
         <v>209</v>
       </c>
       <c r="B237" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C237" t="s">
         <v>389</v>
@@ -11106,7 +10766,7 @@
         <v>209</v>
       </c>
       <c r="B238" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C238" t="s">
         <v>389</v>
@@ -11144,7 +10804,7 @@
         <v>209</v>
       </c>
       <c r="B239" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C239" t="s">
         <v>389</v>
@@ -11182,7 +10842,7 @@
         <v>209</v>
       </c>
       <c r="B240" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C240" t="s">
         <v>389</v>
@@ -11220,7 +10880,7 @@
         <v>209</v>
       </c>
       <c r="B241" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C241" t="s">
         <v>389</v>
@@ -11258,7 +10918,7 @@
         <v>209</v>
       </c>
       <c r="B242" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C242" t="s">
         <v>389</v>
@@ -11402,7 +11062,7 @@
         <v>7</v>
       </c>
       <c r="L245" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -11440,7 +11100,7 @@
         <v>7</v>
       </c>
       <c r="L246" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -11478,7 +11138,7 @@
         <v>7</v>
       </c>
       <c r="L247" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -11516,7 +11176,7 @@
         <v>7</v>
       </c>
       <c r="L248" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -12007,10 +11667,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/data_availability/Latency.xlsx
+++ b/data_availability/Latency.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clunch/sandbox/data_availability/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0278E0-9E73-C04D-857D-4C234BAFE089}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31180" yWindow="6460" windowWidth="42500" windowHeight="21740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="Wait Times" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wait Times'!$A$1:$H$260</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1463,7 +1462,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2058,7 +2057,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2110,7 +2109,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2304,24 +2303,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G223" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I235" sqref="I235"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.33203125" customWidth="1"/>
@@ -2332,7 +2331,7 @@
     <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="64">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2621,7 +2620,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2691,7 +2690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>7</v>
       </c>
       <c r="G12">
-        <v>614</v>
+        <v>365</v>
       </c>
       <c r="H12" t="s">
         <v>439</v>
@@ -2764,7 +2763,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="G13">
-        <v>614</v>
+        <v>365</v>
       </c>
       <c r="H13" t="s">
         <v>439</v>
@@ -2802,7 +2801,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>7</v>
       </c>
       <c r="G14">
-        <v>614</v>
+        <v>365</v>
       </c>
       <c r="H14" t="s">
         <v>439</v>
@@ -2840,7 +2839,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2860,7 +2859,7 @@
         <v>7</v>
       </c>
       <c r="G15">
-        <v>614</v>
+        <v>365</v>
       </c>
       <c r="H15" t="s">
         <v>439</v>
@@ -2878,7 +2877,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>300</v>
       </c>
       <c r="G16">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="H16" t="s">
         <v>439</v>
@@ -2913,7 +2912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>7</v>
       </c>
       <c r="G17">
-        <v>600</v>
+        <v>365</v>
       </c>
       <c r="H17" t="s">
         <v>439</v>
@@ -2951,7 +2950,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>7</v>
       </c>
       <c r="G18">
-        <v>600</v>
+        <v>365</v>
       </c>
       <c r="H18" t="s">
         <v>439</v>
@@ -2989,7 +2988,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>300</v>
       </c>
       <c r="G20">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="H20" t="s">
         <v>439</v>
@@ -3059,7 +3058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>300</v>
       </c>
       <c r="G21">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="H21" t="s">
         <v>439</v>
@@ -3094,7 +3093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3170,7 +3169,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -3281,7 +3280,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -3611,7 +3610,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3725,7 +3724,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -4389,7 +4388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -4427,7 +4426,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -4503,7 +4502,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -4719,7 +4718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -4757,7 +4756,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -4853,7 +4852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -5043,7 +5042,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -5076,7 +5075,7 @@
       </c>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -5152,7 +5151,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -5262,7 +5261,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -5296,7 +5295,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -5330,7 +5329,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -5824,7 +5823,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -5900,7 +5899,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -6090,7 +6089,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -6204,7 +6203,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -6242,7 +6241,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -6280,7 +6279,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -6351,7 +6350,7 @@
       </c>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -6503,7 +6502,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -6617,7 +6616,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
         <v>209</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>209</v>
       </c>
@@ -6764,7 +6763,7 @@
       </c>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
         <v>209</v>
       </c>
@@ -6797,7 +6796,7 @@
       </c>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>209</v>
       </c>
@@ -6835,7 +6834,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>209</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>209</v>
       </c>
@@ -6906,7 +6905,7 @@
       </c>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -6939,7 +6938,7 @@
       </c>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>209</v>
       </c>
@@ -6972,7 +6971,7 @@
       </c>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>209</v>
       </c>
@@ -7010,7 +7009,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>209</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>209</v>
       </c>
@@ -7086,7 +7085,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>209</v>
       </c>
@@ -7124,7 +7123,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>209</v>
       </c>
@@ -7162,7 +7161,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>209</v>
       </c>
@@ -7196,7 +7195,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>209</v>
       </c>
@@ -7230,7 +7229,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>209</v>
       </c>
@@ -7264,7 +7263,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>209</v>
       </c>
@@ -7298,7 +7297,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>209</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>209</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>209</v>
       </c>
@@ -7407,7 +7406,7 @@
       </c>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>209</v>
       </c>
@@ -7445,7 +7444,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>209</v>
       </c>
@@ -7483,7 +7482,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>209</v>
       </c>
@@ -7521,7 +7520,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>209</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>209</v>
       </c>
@@ -7597,7 +7596,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
         <v>209</v>
       </c>
@@ -7630,7 +7629,7 @@
       </c>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>209</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>209</v>
       </c>
@@ -7706,7 +7705,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
         <v>209</v>
       </c>
@@ -7739,7 +7738,7 @@
       </c>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>209</v>
       </c>
@@ -7772,7 +7771,7 @@
       </c>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>209</v>
       </c>
@@ -7805,7 +7804,7 @@
       </c>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>209</v>
       </c>
@@ -7838,7 +7837,7 @@
       </c>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>209</v>
       </c>
@@ -7871,7 +7870,7 @@
       </c>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
         <v>209</v>
       </c>
@@ -7904,7 +7903,7 @@
       </c>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>209</v>
       </c>
@@ -7937,7 +7936,7 @@
       </c>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
         <v>209</v>
       </c>
@@ -7970,7 +7969,7 @@
       </c>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>209</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>209</v>
       </c>
@@ -8040,7 +8039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>209</v>
       </c>
@@ -8075,7 +8074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>209</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>209</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>209</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>209</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
         <v>209</v>
       </c>
@@ -8248,7 +8247,7 @@
       </c>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
         <v>209</v>
       </c>
@@ -8281,7 +8280,7 @@
       </c>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
         <v>209</v>
       </c>
@@ -8314,7 +8313,7 @@
       </c>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>209</v>
       </c>
@@ -8347,7 +8346,7 @@
       </c>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
         <v>209</v>
       </c>
@@ -8380,7 +8379,7 @@
       </c>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
         <v>209</v>
       </c>
@@ -8415,7 +8414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
         <v>209</v>
       </c>
@@ -8450,7 +8449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
         <v>209</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
         <v>209</v>
       </c>
@@ -8520,7 +8519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
         <v>209</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
         <v>209</v>
       </c>
@@ -8590,7 +8589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
         <v>209</v>
       </c>
@@ -8625,7 +8624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
         <v>209</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
         <v>209</v>
       </c>
@@ -8698,7 +8697,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12">
       <c r="A178" t="s">
         <v>209</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
         <v>209</v>
       </c>
@@ -8771,7 +8770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
         <v>209</v>
       </c>
@@ -8806,7 +8805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
         <v>209</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
         <v>209</v>
       </c>
@@ -8879,7 +8878,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
         <v>209</v>
       </c>
@@ -8955,7 +8954,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
         <v>209</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
         <v>209</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -9069,7 +9068,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12">
       <c r="A188" t="s">
         <v>209</v>
       </c>
@@ -9102,7 +9101,7 @@
       </c>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12">
       <c r="A189" t="s">
         <v>209</v>
       </c>
@@ -9135,7 +9134,7 @@
       </c>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -9168,7 +9167,7 @@
       </c>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
         <v>209</v>
       </c>
@@ -9201,7 +9200,7 @@
       </c>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12">
       <c r="A192" t="s">
         <v>209</v>
       </c>
@@ -9234,7 +9233,7 @@
       </c>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -9267,7 +9266,7 @@
       </c>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>209</v>
       </c>
@@ -9300,7 +9299,7 @@
       </c>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -9333,7 +9332,7 @@
       </c>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -9366,7 +9365,7 @@
       </c>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -9436,7 +9435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>209</v>
       </c>
@@ -9469,7 +9468,7 @@
       </c>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>209</v>
       </c>
@@ -9502,7 +9501,7 @@
       </c>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -9535,7 +9534,7 @@
       </c>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>209</v>
       </c>
@@ -9568,7 +9567,7 @@
       </c>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -9601,7 +9600,7 @@
       </c>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -9634,7 +9633,7 @@
       </c>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -9667,7 +9666,7 @@
       </c>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -9735,7 +9734,7 @@
       </c>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -9768,7 +9767,7 @@
       </c>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -9801,7 +9800,7 @@
       </c>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -9834,7 +9833,7 @@
       </c>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -9867,7 +9866,7 @@
       </c>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -9900,7 +9899,7 @@
       </c>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12">
       <c r="A213" t="s">
         <v>209</v>
       </c>
@@ -9933,7 +9932,7 @@
       </c>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12">
       <c r="A214" t="s">
         <v>209</v>
       </c>
@@ -9966,7 +9965,7 @@
       </c>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12">
       <c r="A215" t="s">
         <v>209</v>
       </c>
@@ -9999,7 +9998,7 @@
       </c>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12">
       <c r="A216" t="s">
         <v>209</v>
       </c>
@@ -10032,7 +10031,7 @@
       </c>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12">
       <c r="A217" t="s">
         <v>209</v>
       </c>
@@ -10065,7 +10064,7 @@
       </c>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12">
       <c r="A218" t="s">
         <v>209</v>
       </c>
@@ -10103,7 +10102,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12">
       <c r="A219" t="s">
         <v>209</v>
       </c>
@@ -10138,7 +10137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12">
       <c r="A220" t="s">
         <v>209</v>
       </c>
@@ -10173,7 +10172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12">
       <c r="A221" t="s">
         <v>209</v>
       </c>
@@ -10208,7 +10207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12">
       <c r="A222" t="s">
         <v>209</v>
       </c>
@@ -10242,7 +10241,7 @@
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12">
       <c r="A223" t="s">
         <v>209</v>
       </c>
@@ -10276,7 +10275,7 @@
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12">
       <c r="A224" t="s">
         <v>209</v>
       </c>
@@ -10310,7 +10309,7 @@
       <c r="K224" s="2"/>
       <c r="L224" s="4"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12">
       <c r="A225" t="s">
         <v>209</v>
       </c>
@@ -10344,7 +10343,7 @@
       <c r="K225" s="2"/>
       <c r="L225" s="4"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12">
       <c r="A226" t="s">
         <v>209</v>
       </c>
@@ -10378,7 +10377,7 @@
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
         <v>209</v>
       </c>
@@ -10412,7 +10411,7 @@
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
         <v>209</v>
       </c>
@@ -10446,7 +10445,7 @@
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
         <v>209</v>
       </c>
@@ -10480,7 +10479,7 @@
       <c r="K229" s="2"/>
       <c r="L229" s="4"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
         <v>209</v>
       </c>
@@ -10514,7 +10513,7 @@
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
         <v>209</v>
       </c>
@@ -10548,7 +10547,7 @@
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
         <v>209</v>
       </c>
@@ -10581,7 +10580,7 @@
       </c>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
         <v>209</v>
       </c>
@@ -10614,7 +10613,7 @@
       </c>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
         <v>209</v>
       </c>
@@ -10647,7 +10646,7 @@
       </c>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
         <v>209</v>
       </c>
@@ -10685,7 +10684,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12">
       <c r="A236" t="s">
         <v>209</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12">
       <c r="A237" t="s">
         <v>209</v>
       </c>
@@ -10761,7 +10760,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12">
       <c r="A238" t="s">
         <v>209</v>
       </c>
@@ -10799,7 +10798,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12">
       <c r="A239" t="s">
         <v>209</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
         <v>209</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
         <v>209</v>
       </c>
@@ -10913,7 +10912,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
         <v>209</v>
       </c>
@@ -10951,7 +10950,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
         <v>209</v>
       </c>
@@ -10989,7 +10988,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12">
       <c r="A244" t="s">
         <v>209</v>
       </c>
@@ -11027,7 +11026,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12">
       <c r="A245" t="s">
         <v>209</v>
       </c>
@@ -11065,7 +11064,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12">
       <c r="A246" t="s">
         <v>209</v>
       </c>
@@ -11103,7 +11102,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12">
       <c r="A247" t="s">
         <v>209</v>
       </c>
@@ -11141,7 +11140,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12">
       <c r="A248" t="s">
         <v>209</v>
       </c>
@@ -11179,7 +11178,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
         <v>209</v>
       </c>
@@ -11214,7 +11213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12">
       <c r="A250" t="s">
         <v>209</v>
       </c>
@@ -11249,7 +11248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12">
       <c r="A251" t="s">
         <v>209</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12">
       <c r="A252" t="s">
         <v>411</v>
       </c>
@@ -11319,7 +11318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12">
       <c r="A253" t="s">
         <v>411</v>
       </c>
@@ -11354,7 +11353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12">
       <c r="A254" t="s">
         <v>411</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12">
       <c r="A255" t="s">
         <v>411</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12">
       <c r="A256" t="s">
         <v>411</v>
       </c>
@@ -11459,7 +11458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11">
       <c r="A257" t="s">
         <v>411</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11">
       <c r="A258" t="s">
         <v>411</v>
       </c>
@@ -11529,7 +11528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11">
       <c r="A259" t="s">
         <v>411</v>
       </c>
@@ -11564,7 +11563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11">
       <c r="A260" t="s">
         <v>411</v>
       </c>
@@ -11600,32 +11599,37 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H260" xr:uid="{F920CE2C-728A-1C45-9F6A-0B2E6D995C2C}"/>
+  <autoFilter ref="A1:H260"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="227.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>434</v>
       </c>
@@ -11633,7 +11637,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>435</v>
       </c>
@@ -11641,7 +11645,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>437</v>
       </c>
@@ -11649,7 +11653,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>439</v>
       </c>
@@ -11657,7 +11661,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>441</v>
       </c>
@@ -11665,7 +11669,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>475</v>
       </c>
@@ -11675,5 +11679,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>